--- a/data/raw/Rede Two Mode_Tarefa Aula 1_Berrini T1.xlsx
+++ b/data/raw/Rede Two Mode_Tarefa Aula 1_Berrini T1.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\FGV\04_Modulos\10 - Analise de Midias Sociais e Mineracao de Texto\Social-Media-Analysis-Text-Mining\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{6C99C290-1F2B-4123-A88C-F1EC203E3553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9E793D14-AB96-43F1-8709-703308316CE9}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{6C99C290-1F2B-4123-A88C-F1EC203E3553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F26E78DA-0D9F-4DF4-AE3E-3F9905E261B6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rede 2-mode" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -445,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1462,6 +1468,68 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <f>SUM(B2:B20)</f>
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:P21" si="0">SUM(C2:C20)</f>
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/data/raw/Rede Two Mode_Tarefa Aula 1_Berrini T1.xlsx
+++ b/data/raw/Rede Two Mode_Tarefa Aula 1_Berrini T1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\FGV\04_Modulos\10 - Analise de Midias Sociais e Mineracao de Texto\Social-Media-Analysis-Text-Mining\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{6C99C290-1F2B-4123-A88C-F1EC203E3553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F26E78DA-0D9F-4DF4-AE3E-3F9905E261B6}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{6C99C290-1F2B-4123-A88C-F1EC203E3553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B0C3F126-DDF5-48CE-80BE-F65F6A0CD25E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1468,68 +1468,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <f>SUM(B2:B20)</f>
-        <v>9</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ref="C21:P21" si="0">SUM(C2:C20)</f>
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
